--- a/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>15.03036338303594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.513015236373705</v>
+        <v>-7.513015236373699</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>22.49368072445561</v>
@@ -655,7 +655,7 @@
         <v>14.79641331722874</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-17.10686918533088</v>
+        <v>-17.10686918533089</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>18.70582288941318</v>
@@ -664,7 +664,7 @@
         <v>14.9935505701237</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-12.18565992348936</v>
+        <v>-12.18565992348935</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.583344372191954</v>
+        <v>6.459317322013558</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.845939137593102</v>
+        <v>5.428943168789922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.5180325767017</v>
+        <v>-15.26986377624185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.09223683196085</v>
+        <v>14.22577626062564</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.627935449541954</v>
+        <v>6.925994326425386</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-25.11025148194833</v>
+        <v>-24.66287335128754</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.67168961337939</v>
+        <v>12.94947104583159</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.132780663196341</v>
+        <v>9.153869946020478</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.93812993727758</v>
+        <v>-17.94957166179029</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.44711868106202</v>
+        <v>23.54394438856618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.24287488899045</v>
+        <v>22.3172429663676</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7372042114298787</v>
+        <v>1.486694301410619</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.87167210990021</v>
+        <v>31.30179423816267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>23.46993657276374</v>
+        <v>23.25789685006344</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-9.477122612532222</v>
+        <v>-9.444582088043953</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.37850328392324</v>
+        <v>25.10262710652415</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.67666535799825</v>
+        <v>21.00097620372826</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.797930636890626</v>
+        <v>-6.446789598677855</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3654551557639931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1826749016969951</v>
+        <v>-0.182674901696995</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4297510965210987</v>
@@ -760,7 +760,7 @@
         <v>0.2826916112819652</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3268338285981813</v>
+        <v>-0.3268338285981814</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.401355205608282</v>
@@ -769,7 +769,7 @@
         <v>0.3217040815283244</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2614575190291509</v>
+        <v>-0.2614575190291508</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1379910918436413</v>
+        <v>0.1400126377715658</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1273961066054683</v>
+        <v>0.1191005769441291</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3385492283655674</v>
+        <v>-0.3341105584201337</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2305321911827575</v>
+        <v>0.2553601679608419</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1168233426134957</v>
+        <v>0.1183693780480474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4386050336678662</v>
+        <v>-0.4310312040538367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2533354552485754</v>
+        <v>0.261643851201141</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1642272367426823</v>
+        <v>0.1796620005624632</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3578995884255357</v>
+        <v>-0.3577261508552175</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6505160722089977</v>
+        <v>0.6474267219969976</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.643809882027906</v>
+        <v>0.625589601709641</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02415341918235443</v>
+        <v>0.04346281345705776</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6684918870727323</v>
+        <v>0.6857796711020679</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4926766411844024</v>
+        <v>0.5025136099040316</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1983936611552638</v>
+        <v>-0.2036925100718977</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.563795855279363</v>
+        <v>0.5874611329347739</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4753370651298472</v>
+        <v>0.4777465546569206</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1577400573714243</v>
+        <v>-0.1501350182515407</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-36.38047043157274</v>
+        <v>-36.9935903962917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-40.23837944290442</v>
+        <v>-40.72911847959895</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-34.21057027131689</v>
+        <v>-34.37121896767739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-32.35235560580778</v>
+        <v>-32.56354094384448</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-45.89609963492217</v>
+        <v>-44.82565807617306</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-36.25160534201164</v>
+        <v>-36.46545263221158</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-32.86193034449821</v>
+        <v>-32.64465415108603</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-41.05569710946941</v>
+        <v>-40.9366487542059</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-33.74452435891095</v>
+        <v>-33.9515318855086</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-24.42500915501164</v>
+        <v>-24.71328381415182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-28.81127978536181</v>
+        <v>-28.93765456977065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.10650642480153</v>
+        <v>-21.22588450079906</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-20.19450758230309</v>
+        <v>-20.8141366826236</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-33.78037896318077</v>
+        <v>-33.80058745961024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-25.12176084752961</v>
+        <v>-25.79879855378939</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-23.74427296251224</v>
+        <v>-24.21659120080799</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-33.09779537955366</v>
+        <v>-32.90963423690673</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-24.92836364966325</v>
+        <v>-24.96030419749404</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6211331437750193</v>
+        <v>-0.6249689137980025</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6914231416040351</v>
+        <v>-0.6926128079752367</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5837501382296885</v>
+        <v>-0.589575914156507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4581587836813794</v>
+        <v>-0.465429990111587</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6440313421791628</v>
+        <v>-0.635779639879657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5132509370499407</v>
+        <v>-0.5156708910385116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5116119645085152</v>
+        <v>-0.5116309917840564</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6436293427384766</v>
+        <v>-0.6419616478369536</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.528754020895674</v>
+        <v>-0.5284687996681321</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4616366935885801</v>
+        <v>-0.464321831924492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5476036472590762</v>
+        <v>-0.5478593673134461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3946937396994132</v>
+        <v>-0.3977152448207991</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3102452066732869</v>
+        <v>-0.3148218638873337</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5074675758709069</v>
+        <v>-0.5113420089646687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3859149676050229</v>
+        <v>-0.3890628479289168</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3960516254326613</v>
+        <v>-0.4006107880543846</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.5442129429630214</v>
+        <v>-0.5475692739814978</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4144066819203249</v>
+        <v>-0.4132406884170738</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>21.85042115371685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8675634486344563</v>
+        <v>0.8675634486344619</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>25.36510455203442</v>
@@ -1083,7 +1083,7 @@
         <v>20.18398356625069</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.094793584623257</v>
+        <v>-3.094793584623251</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>23.7683425612337</v>
@@ -1092,7 +1092,7 @@
         <v>21.00702155404828</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.009700806539054</v>
+        <v>-1.009700806539049</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.40781140855665</v>
+        <v>14.41734944720065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.59870972333602</v>
+        <v>14.97403142863574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.919948834861544</v>
+        <v>-5.898914467506888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.04976352889326</v>
+        <v>17.56724356678908</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.58029103132064</v>
+        <v>13.1044152882892</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.74230635177525</v>
+        <v>-10.05663693121149</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.49508961702566</v>
+        <v>18.58404554121699</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.42182661275335</v>
+        <v>14.91863664569001</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.862838798322858</v>
+        <v>-5.519150824225676</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.24254598988212</v>
+        <v>29.19973535947525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>29.38142360664261</v>
+        <v>30.24495777459089</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.024571254817726</v>
+        <v>8.006111100716279</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33.18426266255698</v>
+        <v>32.7682900096284</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>27.97103538075272</v>
+        <v>27.39378804842757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.509889151495028</v>
+        <v>3.083508185963812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>29.00886867156053</v>
+        <v>29.24646513367508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.2272225850712</v>
+        <v>25.8520845401893</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.91414790193707</v>
+        <v>3.781178182371431</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.8093117132360846</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.03213344292157603</v>
+        <v>0.03213344292157624</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6191657931433957</v>
@@ -1188,7 +1188,7 @@
         <v>0.4926938963706549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07554434954160923</v>
+        <v>-0.07554434954160909</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6958045460515443</v>
@@ -1197,7 +1197,7 @@
         <v>0.6149684631417934</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.02955840986942249</v>
+        <v>-0.02955840986942233</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4459808541166308</v>
+        <v>0.4766094309492984</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4538780132766074</v>
+        <v>0.4817319690082557</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1966399900354671</v>
+        <v>-0.1941749644396533</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4105197728600068</v>
+        <v>0.385081235527828</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2906177100990233</v>
+        <v>0.2852458075676771</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2170120038601314</v>
+        <v>-0.2160825891643793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4773475647970971</v>
+        <v>0.5053037678425173</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4067129143675945</v>
+        <v>0.3985189842479636</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1572063342930804</v>
+        <v>-0.1500999424561353</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.233725727078852</v>
+        <v>1.283051070941389</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.238810302433831</v>
+        <v>1.337484211143678</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3007700938378289</v>
+        <v>0.3506987507277152</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9115033442877947</v>
+        <v>0.8691737415283538</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7677853992098539</v>
+        <v>0.7439124233516298</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09370545134075631</v>
+        <v>0.08186371177674816</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9344383367053588</v>
+        <v>0.93417969283671</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.846358464185583</v>
+        <v>0.8063572842026099</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.123878066264194</v>
+        <v>0.1216134708352536</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>3.822606882087887</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-9.03278592600345</v>
+        <v>-9.032785926003456</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>23.67351345482934</v>
@@ -1306,7 +1306,7 @@
         <v>3.186679842168055</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-9.288402220899638</v>
+        <v>-9.288402220899645</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.04027272462791</v>
+        <v>15.35223591121346</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.533333124635994</v>
+        <v>-5.671228657862236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.53991006465496</v>
+        <v>-17.76616362547494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.79399790108218</v>
+        <v>17.97865032543794</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.155102955465974</v>
+        <v>-3.48875631976454</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.22435000699811</v>
+        <v>-16.43837439632485</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>18.56466638223671</v>
+        <v>19.04408229484446</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.972364524728281</v>
+        <v>-2.032820599289151</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.54635977007518</v>
+        <v>-14.5169037552986</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>30.8086611523923</v>
+        <v>29.71024584238067</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.601094754328376</v>
+        <v>9.438713663631388</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.656267369579747</v>
+        <v>-1.459249773396323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31.44852341113745</v>
+        <v>31.13880943786663</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.99961304275741</v>
+        <v>10.86956340459641</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.481144662768949</v>
+        <v>-2.476707729583417</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>29.05542024849707</v>
+        <v>28.80367840567686</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.827829874743022</v>
+        <v>8.462767530477876</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.969733739416367</v>
+        <v>-3.294686279243118</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.07590309854716999</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1793583440425478</v>
+        <v>-0.1793583440425479</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5135918084500535</v>
@@ -1411,7 +1411,7 @@
         <v>0.06913433725050007</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2015098985347347</v>
+        <v>-0.2015098985347349</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.329425755146579</v>
+        <v>0.3345743419645667</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0997846447003702</v>
+        <v>-0.1179535871723414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4017441406906792</v>
+        <v>-0.3987760463591711</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3262632252527484</v>
+        <v>0.3374204127493559</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05873746835305932</v>
+        <v>-0.06378343519864352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2991684427024547</v>
+        <v>-0.3024495907150774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.383972903410396</v>
+        <v>0.388183447308777</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04319221352983171</v>
+        <v>-0.0416185443469641</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3028237094761592</v>
+        <v>-0.2982759535732934</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8275150695043534</v>
+        <v>0.7839622147666996</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2521527493968603</v>
+        <v>0.2461630546183843</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.0452085787998933</v>
+        <v>-0.03746574873580198</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6722370223459248</v>
+        <v>0.6772683570732196</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2434322234552723</v>
+        <v>0.2298659469179651</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.05098767478273359</v>
+        <v>-0.05125063605842725</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6813943836384592</v>
+        <v>0.6714603223600734</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2021041487612316</v>
+        <v>0.1925655121466438</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.08985676075341383</v>
+        <v>-0.07585019592248411</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>38.74000911964392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26.9379388918581</v>
+        <v>26.93793889185813</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-9.517516500123069</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.22664128490271</v>
+        <v>-20.60160226142185</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>29.61442496128076</v>
+        <v>30.10528452322957</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17.81658287319861</v>
+        <v>18.19801548380796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-19.78602422703266</v>
+        <v>-19.36348093634047</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>19.8633412484626</v>
+        <v>19.49687512055648</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>14.74711724443848</v>
+        <v>15.17063954024595</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-17.18126217155517</v>
+        <v>-16.93900339906438</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>27.28568197924009</v>
+        <v>27.10068077514997</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>18.55945285762602</v>
+        <v>19.45783959677339</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.4876884794410455</v>
+        <v>-1.498666499220561</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>47.07571204010733</v>
+        <v>47.24503771232452</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>35.25712746598822</v>
+        <v>35.49202748649963</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1972873163025174</v>
+        <v>0.3793775126906617</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>36.2779530216071</v>
+        <v>35.85050717790843</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>31.02481717460746</v>
+        <v>31.12874077394373</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-3.499174988496601</v>
+        <v>-2.585591736553206</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>38.74398026003907</v>
+        <v>39.35462533612971</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>30.6114482887512</v>
+        <v>30.89286537475958</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.8070407391993086</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5611773102233795</v>
+        <v>0.5611773102233801</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1588069341556198</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3879205490765143</v>
+        <v>-0.3891619805822056</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5413595729589415</v>
+        <v>0.5544950577962675</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3321706140734129</v>
+        <v>0.336598775334833</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3094076679846754</v>
+        <v>-0.2950973043363392</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3042278406353228</v>
+        <v>0.2993060712808976</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2235066938611575</v>
+        <v>0.2343324694988934</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3071080826513868</v>
+        <v>-0.2993359006008167</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4728242478580335</v>
+        <v>0.4616758579952151</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3204133643787467</v>
+        <v>0.3317378567593228</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.01793160000841705</v>
+        <v>-0.03351756829523398</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.111574311454113</v>
+        <v>1.140805581863865</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8525208317016872</v>
+        <v>0.8327669794649969</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.0004495030840741228</v>
+        <v>0.01032889554434346</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6765341757361872</v>
+        <v>0.6726508380337851</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.580895295505971</v>
+        <v>0.5870450722741815</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.07199535875945715</v>
+        <v>-0.05168050590854623</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7798110608236237</v>
+        <v>0.7896057581477718</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6189274737065797</v>
+        <v>0.6153371701145057</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.7580318287420784</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.144392555470646</v>
+        <v>0.1443925554706404</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>16.72025966847671</v>
@@ -1725,7 +1725,7 @@
         <v>-1.000109156535628</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-8.846885117443936</v>
+        <v>-8.846885117443954</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>18.40385333356069</v>
@@ -1734,7 +1734,7 @@
         <v>-0.1046486725670648</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-4.455050258694893</v>
+        <v>-4.455050258694881</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>11.84125565787087</v>
+        <v>11.69413062681621</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.308524694541245</v>
+        <v>-7.730492253303921</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.673405654873558</v>
+        <v>-7.738620430780357</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8.719385635666056</v>
+        <v>8.230692633288902</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.482510283521744</v>
+        <v>-9.910117288501832</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-16.43908026454205</v>
+        <v>-16.62944675816279</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>12.1337199954331</v>
+        <v>12.2020540466185</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.821597917940681</v>
+        <v>-5.980023244547596</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.532328338300495</v>
+        <v>-9.425363225176811</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27.63928479929744</v>
+        <v>28.59662613005386</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.280190024819884</v>
+        <v>8.598254704592257</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.363864307616508</v>
+        <v>7.542180232401438</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25.21653699445204</v>
+        <v>24.96898625232507</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.935459692603708</v>
+        <v>7.785986125003339</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.618304830927055</v>
+        <v>-1.076991177206822</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>24.43277938646195</v>
+        <v>24.47865319395028</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.726708058448474</v>
+        <v>5.80954195405246</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.9199456774130184</v>
+        <v>1.362227340269701</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.02221872043703513</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.004232299623243093</v>
+        <v>0.00423229962324293</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.3592623433933774</v>
@@ -1830,7 +1830,7 @@
         <v>-0.02148899397199958</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1900899114035389</v>
+        <v>-0.1900899114035393</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4554096264580687</v>
@@ -1839,7 +1839,7 @@
         <v>-0.002589567087898491</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1102417378247833</v>
+        <v>-0.1102417378247831</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3128021246103924</v>
+        <v>0.2995558036855734</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1902064303550527</v>
+        <v>-0.2038205984977926</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1913755253578927</v>
+        <v>-0.1993293690880137</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.175065343477423</v>
+        <v>0.1533407358873347</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.189983545514073</v>
+        <v>-0.193403347308803</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3215774120181231</v>
+        <v>-0.3226220492304862</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2756849458731027</v>
+        <v>0.2811530011527125</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1373880867143148</v>
+        <v>-0.1405467971303859</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2200486746714668</v>
+        <v>-0.220015237151704</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9248163305275052</v>
+        <v>0.9642173871840772</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3035921878570764</v>
+        <v>0.2850287289308827</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2393129374751687</v>
+        <v>0.2547991601295002</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6146467648643092</v>
+        <v>0.5896298086107845</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1647812422524435</v>
+        <v>0.1872375844024886</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.03854920168581327</v>
+        <v>-0.02681424328218339</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6615335127910221</v>
+        <v>0.662508172336973</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1523634478126032</v>
+        <v>0.1540622233680848</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.02459688333605455</v>
+        <v>0.03635245780658972</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>8.552771818430655</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>14.26186929217451</v>
+        <v>14.2618692921745</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>18.12073823433715</v>
@@ -1948,7 +1948,7 @@
         <v>13.10067727089406</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>15.299746925302</v>
+        <v>15.29974692530199</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>14.43837755749896</v>
+        <v>13.91346961441259</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>12.08021220220419</v>
+        <v>11.79266697896042</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.691791783017816</v>
+        <v>10.03739015941442</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10.74368124425242</v>
+        <v>10.28258909348419</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.588142202752985</v>
+        <v>2.919686376288644</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.848396462357798</v>
+        <v>9.302278441796414</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>14.35529375189787</v>
+        <v>14.16414826287925</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.223197075945457</v>
+        <v>9.291066861620344</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>11.28753862795818</v>
+        <v>11.20715270936458</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.62212429089709</v>
+        <v>25.27140999635813</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>23.08806116200523</v>
+        <v>23.20273089561908</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.3774793972797</v>
+        <v>21.89740045200838</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22.31116557421912</v>
+        <v>21.28278886812419</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.7675461325006</v>
+        <v>13.72088962897256</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.17124412647569</v>
+        <v>19.60214159927002</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>21.93571699767137</v>
+        <v>21.89743795070316</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>16.92471623651855</v>
+        <v>16.76674035025445</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.42944926794345</v>
+        <v>19.189857661873</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1748776405471412</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2916109659599037</v>
+        <v>0.2916109659599034</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4295380190270675</v>
@@ -2053,7 +2053,7 @@
         <v>0.3105413747542393</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3626686121129812</v>
+        <v>0.362668612112981</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3755036884153454</v>
+        <v>0.371763935816378</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3204413339603455</v>
+        <v>0.3154713624226467</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2385213799167772</v>
+        <v>0.2608815103450715</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2054013900698999</v>
+        <v>0.1970211632272315</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.04979273611818107</v>
+        <v>0.05773324525357252</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1765630671408535</v>
+        <v>0.1802414268602585</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3228512215687999</v>
+        <v>0.3230335073807694</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2062755543422289</v>
+        <v>0.205689679361366</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2565806225530263</v>
+        <v>0.2490647973894922</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7934619189684091</v>
+        <v>0.7930263649016176</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7140701524919472</v>
+        <v>0.7223649015121252</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6436306309662021</v>
+        <v>0.6792505846092862</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4899053815340201</v>
+        <v>0.4702962556851968</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.302601016693362</v>
+        <v>0.2996023702456268</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4220784806587853</v>
+        <v>0.4299715651693862</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5439666718415423</v>
+        <v>0.5441632563601644</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4215865482251594</v>
+        <v>0.4154893354403707</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4853754518764714</v>
+        <v>0.4833489731497668</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>2.154419717205702</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.783907195606194</v>
+        <v>-1.783907195606205</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.386626872606846</v>
@@ -2153,7 +2153,7 @@
         <v>-1.821877896712798</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.8050847322768173</v>
+        <v>0.8050847322768284</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.068357055911373</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.658636751543866</v>
+        <v>-6.84721463580326</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.332305952516581</v>
+        <v>-2.970481653090228</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.697262906476999</v>
+        <v>-7.311564483908321</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.835566395985694</v>
+        <v>-1.588232342068753</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.667233775762329</v>
+        <v>-6.839706199267681</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.744207023633833</v>
+        <v>-3.686430772136443</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.683154069864682</v>
+        <v>-2.47655411353854</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.510100735645161</v>
+        <v>-3.59262882022702</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.038455004907359</v>
+        <v>-4.143037774167134</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.832159084748595</v>
+        <v>3.948898332868271</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.64203655329236</v>
+        <v>7.070898784188828</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.287608551787248</v>
+        <v>3.409350958902059</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.332245365413032</v>
+        <v>8.171498066169001</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.337131623891591</v>
+        <v>2.987208946637071</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.412579628641008</v>
+        <v>5.478940502764143</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.613204252086929</v>
+        <v>4.511776902408213</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.85574472536336</v>
+        <v>3.638003061720916</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.839865880133901</v>
+        <v>3.138724583134</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.04143508281910315</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.03430916538742353</v>
+        <v>-0.03430916538742375</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.05773700602092972</v>
@@ -2258,7 +2258,7 @@
         <v>-0.03106033792584185</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01372551030372144</v>
+        <v>0.01372551030372163</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.01928018407348567</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1204742623121259</v>
+        <v>-0.1247033723650075</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.06026193060064331</v>
+        <v>-0.05370049533914496</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1411238283936539</v>
+        <v>-0.1338984201168227</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02957466142805046</v>
+        <v>-0.02630337182088295</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.109971389298419</v>
+        <v>-0.1122136616554905</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06098100078934657</v>
+        <v>-0.05934569095059473</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.04737120619731337</v>
+        <v>-0.04338154634352964</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.06168960718791504</v>
+        <v>-0.06277570969674662</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.07081585685394663</v>
+        <v>-0.0724662155826782</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.07927866900647124</v>
+        <v>0.07894213919377832</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1558485997074056</v>
+        <v>0.14112460747215</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.06508523571382244</v>
+        <v>0.06857801090022794</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.148447577059951</v>
+        <v>0.1448437144428225</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.05937181337236346</v>
+        <v>0.05160350244943924</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.09644149405190393</v>
+        <v>0.09721566143892323</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0846072391368434</v>
+        <v>0.08359082229229205</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.06995046652223197</v>
+        <v>0.06702489115541768</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.05325699131813152</v>
+        <v>0.0585025558065865</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>4.931789007314219</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-1.372232436003412</v>
+        <v>-1.372232436003407</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>7.682874370305282</v>
@@ -2367,7 +2367,7 @@
         <v>0.6593992298668083</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-3.417803274513576</v>
+        <v>-3.417803274513587</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>6.769180299209459</v>
@@ -2376,7 +2376,7 @@
         <v>2.783455742752722</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.35591841404782</v>
+        <v>-2.355918414047831</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3.393542928941604</v>
+        <v>3.243853663615553</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.354412734592538</v>
+        <v>2.249278540550085</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.873200970518039</v>
+        <v>-4.034058151523818</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>5.343015544701932</v>
+        <v>5.038262218121553</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.742079829286096</v>
+        <v>-1.798007001659801</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-5.557024096861152</v>
+        <v>-5.763844419599288</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>5.189281836134108</v>
+        <v>4.853167015507185</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.069404606946655</v>
+        <v>1.0620604256468</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-3.983969515362292</v>
+        <v>-4.088500827011253</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>8.368586662563738</v>
+        <v>8.25446542520357</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.240612841349782</v>
+        <v>7.569689323778047</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.277896619513845</v>
+        <v>1.041212660049607</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>10.00645723220347</v>
+        <v>9.829208626868335</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.062185974607208</v>
+        <v>3.043560835544697</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.019273019178776</v>
+        <v>-1.215055027764649</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>8.567321285073332</v>
+        <v>8.465951839468079</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.486443110744377</v>
+        <v>4.420362916540673</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-0.5705277069228156</v>
+        <v>-0.6789590881061048</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1141097080022015</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.03175015037165449</v>
+        <v>-0.03175015037165436</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.1417989937389354</v>
@@ -2472,7 +2472,7 @@
         <v>0.01217020385348655</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.06308069633376109</v>
+        <v>-0.06308069633376129</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.138755039348657</v>
@@ -2481,7 +2481,7 @@
         <v>0.05705543271701655</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.04829174845314838</v>
+        <v>-0.0482917484531486</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.07613751812564008</v>
+        <v>0.07295966032663102</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.05279912480423706</v>
+        <v>0.05266013406212407</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.08705487124440389</v>
+        <v>-0.09014781411707694</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.0956834271600193</v>
+        <v>0.09223506891850687</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.03140433807478311</v>
+        <v>-0.03250050049580968</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.09967815284164495</v>
+        <v>-0.1039041523359927</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1035586485530987</v>
+        <v>0.09721592682494308</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.02129185793355627</v>
+        <v>0.0214095445073367</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.08047245448710827</v>
+        <v>-0.08214594649942632</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2002732138133771</v>
+        <v>0.1978086415154598</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1727045489398356</v>
+        <v>0.1819216921893624</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.02980697251237479</v>
+        <v>0.02455072309994901</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1884509485162489</v>
+        <v>0.1861291739283825</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.05886728031446115</v>
+        <v>0.05766626863939101</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.01872486503729573</v>
+        <v>-0.02268589918864401</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1776308122811889</v>
+        <v>0.1752555504039981</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.09299372593634614</v>
+        <v>0.09197506120007702</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.01193480924939867</v>
+        <v>-0.01424060189831119</v>
       </c>
     </row>
     <row r="58">
